--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8638A70-CE84-4EC7-9A0F-552063720AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77493125-9159-4340-B573-7D74314CC2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>等待技术面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,11 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,7 +600,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -604,7 +619,7 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -612,7 +627,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -623,6 +638,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -650,6 +668,9 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -659,6 +680,9 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77493125-9159-4340-B573-7D74314CC2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C8CBFC-4141-4F50-99E9-2BDF08813FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,14 @@
   </si>
   <si>
     <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京蓝卫通公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -684,6 +692,22 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C8CBFC-4141-4F50-99E9-2BDF08813FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5684887-2781-497C-868A-AE06EC51E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>晚上7点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不符合要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,13 +616,14 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.4140625" customWidth="1"/>
     <col min="3" max="3" width="15.4140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -696,17 +705,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5684887-2781-497C-868A-AE06EC51E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD8808-1AB0-4CD3-B8F2-B56A7D0D9CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>不符合要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大数元科技发展有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -724,6 +728,19 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD8808-1AB0-4CD3-B8F2-B56A7D0D9CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D2F4E-1CB4-48BD-8B15-07F3C10279DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>北京大数元科技发展有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一到两个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,19 +518,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -534,32 +538,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -567,17 +571,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -585,22 +589,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -620,23 +624,23 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" customWidth="1"/>
-    <col min="3" max="3" width="15.4140625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -644,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -652,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -663,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -677,12 +681,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -693,12 +697,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -709,12 +713,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -728,17 +732,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D2F4E-1CB4-48BD-8B15-07F3C10279DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729A296-544D-4727-B540-3ACCA990015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一到两个工作日</t>
+    <t>复试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,12 +624,13 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729A296-544D-4727-B540-3ACCA990015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA13E2-D399-4D55-BE72-6E0E707F6BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>复试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二、周四加班9点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -634,6 +638,7 @@
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,12 +719,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -733,12 +738,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -747,6 +752,9 @@
       </c>
       <c r="C22" t="s">
         <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA13E2-D399-4D55-BE72-6E0E707F6BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58915BA-6EC8-4D31-95E2-3C575240F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>周二、周四加班9点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两三个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,19 +526,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -542,32 +546,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -575,17 +579,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -593,22 +597,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -628,25 +632,25 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -654,7 +658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -662,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -673,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -687,12 +691,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -703,12 +707,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -719,12 +723,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -738,12 +742,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -752,6 +756,9 @@
       </c>
       <c r="C22" t="s">
         <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58915BA-6EC8-4D31-95E2-3C575240F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04414205-F898-484D-A48B-2D696ECFAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>两三个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯阜德（武汉）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -764,6 +768,19 @@
         <v>38</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04414205-F898-484D-A48B-2D696ECFAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF53FF-2951-422B-AED5-CD4192E2C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>唯阜德（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,19 +534,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -550,32 +554,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -583,17 +587,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -601,22 +605,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -635,26 +639,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -662,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -670,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -681,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -695,12 +699,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -711,12 +715,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -727,12 +731,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -746,12 +750,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -768,17 +772,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF53FF-2951-422B-AED5-CD4192E2C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CFA1E4-E475-4814-A132-F5EDCE3F678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,19 +534,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -554,32 +554,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -587,17 +587,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -605,22 +605,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -640,25 +640,25 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -666,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -674,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -699,12 +699,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -715,12 +715,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -731,12 +731,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -750,12 +750,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -772,12 +772,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CFA1E4-E475-4814-A132-F5EDCE3F678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F1FE5-7648-47B3-903B-8424C8F7D6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -653,12 +653,12 @@
     <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -666,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -674,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -698,13 +698,16 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -715,12 +718,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F1FE5-7648-47B3-903B-8424C8F7D6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1CFE5E-A473-4E07-8D8A-EC780830C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>一周内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上6.30人力复试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -648,8 +652,8 @@
     <col min="1" max="1" width="28.25" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,6 +775,9 @@
       <c r="D22" t="s">
         <v>39</v>
       </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
       <c r="G22" t="s">
         <v>38</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1CFE5E-A473-4E07-8D8A-EC780830C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9164F-90E9-431B-B301-880EA8518482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9164F-90E9-431B-B301-880EA8518482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258CD3E-A6B0-4C60-860A-380A0A04A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>晚上6.30人力复试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是他目前主要做得失技术支持（也就是老项目的维护），对于找工作、未来职业规划都没有想法，对薪资、加班、等问题都及其看中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -738,12 +746,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -757,12 +765,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -781,13 +789,19 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -796,6 +810,9 @@
       </c>
       <c r="C26" t="s">
         <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258CD3E-A6B0-4C60-860A-380A0A04A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9497DD5-6B72-4732-A66B-872F2810F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,76 +26,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰鉴科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京华飞数据技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天与养老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湖南拓维云创科技有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江苏金智教育信息股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京北方信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科院沈苏公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云账房网络科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国网电力科学研究院（南瑞集团）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京未来高新技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方财富信息股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳易宝软件有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梓如商务旅行服务集团有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏数兑科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉佰钧成技术责任有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +145,298 @@
   </si>
   <si>
     <t>主要是他目前主要做得失技术支持（也就是老项目的维护），对于找工作、未来职业规划都没有想法，对薪资、加班、等问题都及其看中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉兴智联科技服务有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神州数码信息服务股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北春盈晟信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商证券股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国药新创科技发展有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光碧水科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音信云（武汉）信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市爱德数智科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓德（武汉）软件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉中地数码科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市甲乐科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方微银科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市金刚璞缇科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天云融创科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招联金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联商务股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润和软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市易立德信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科软科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉智领创联科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰速运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓锐智高（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉虹服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海飞未信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地伟业技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上扬软件（上海）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北腾毅实发人力资源服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佰思杰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉鸿海鑫科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海麦尔松伊信息咨询工作室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳德智合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京易择（北京）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉空心科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智朗拿云（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉杰圣云科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西山韵信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北小橙子科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市同步远方信息技术开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神州微品致远信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉英泰斯特电子技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信安世纪科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺通达极端有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海娇罗电子商务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州蓝图人力资源有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联龙博通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯阜德（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中望软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉华信云创技术服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海电气数智生态科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉汉鸣信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北金拓维信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳南区人瑞人力资源服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信联互动科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博彦科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳中科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌天问网络服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中船重工（武汉）凌久电子有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉达梦数据库股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外企德科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佰钧成技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,104 +772,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -649,170 +1076,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9497DD5-6B72-4732-A66B-872F2810F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07FB046-9834-428C-A5CA-7E6B2FB12D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天喻教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中交二航局智行行国际公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国汽智图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,23 +787,23 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.08203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -802,7 +814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -813,7 +825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -824,7 +836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -835,28 +847,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -867,7 +885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -878,7 +896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -886,12 +904,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -905,7 +923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -919,7 +937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -933,7 +951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -947,7 +965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -961,7 +979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -975,7 +993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1003,7 +1021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1045,7 +1063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1076,28 +1094,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1141,12 +1159,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1157,12 +1175,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1173,12 +1191,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1192,12 +1210,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1223,12 +1241,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1242,17 +1260,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07FB046-9834-428C-A5CA-7E6B2FB12D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13B8E7-8D49-48CD-AD26-7CCEE2C37043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,10 @@
   </si>
   <si>
     <t>国汽智图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午1.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +791,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1094,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1273,16 +1277,29 @@
         <v>102</v>
       </c>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44659</v>
+      </c>
+    </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
     </row>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13B8E7-8D49-48CD-AD26-7CCEE2C37043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E7CC31-EB79-4AF3-A046-F9DD839F0719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,20 +794,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08203125" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -818,7 +818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -840,7 +840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -851,7 +851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -862,7 +862,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -873,12 +873,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -889,7 +889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -900,7 +900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -908,12 +908,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -941,7 +941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -955,7 +955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -969,7 +969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -983,7 +983,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -997,7 +997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1101,25 +1101,25 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1163,12 +1163,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1179,12 +1179,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1195,12 +1195,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1214,12 +1214,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1245,12 +1245,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1264,25 +1264,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1290,12 +1293,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,28 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E7CC31-EB79-4AF3-A046-F9DD839F0719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD4457-A6C1-4FD0-A481-FF3BA267D78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="1210" windowWidth="27920" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +461,10 @@
   </si>
   <si>
     <t>下午1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六下午三点综面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,20 +806,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.08203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -818,7 +830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -829,7 +841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -840,7 +852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -851,7 +863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -862,7 +874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -873,12 +885,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -889,7 +901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -900,7 +912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -908,12 +920,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -927,7 +939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -941,7 +953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -955,7 +967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -969,7 +981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -983,7 +995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1100,26 +1112,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1163,12 +1175,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1179,12 +1191,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1195,12 +1207,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1214,12 +1226,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1245,12 +1257,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1264,12 +1276,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1279,13 +1291,16 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1293,12 +1308,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>105</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD4457-A6C1-4FD0-A481-FF3BA267D78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF612E60-2421-4646-A4DE-F4CEC22A09F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1210" windowWidth="27920" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="790" yWindow="1150" windowWidth="18620" windowHeight="9620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,10 @@
   </si>
   <si>
     <t>周六下午三点综面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3到5个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1117,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1300,20 +1304,23 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>105</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF612E60-2421-4646-A4DE-F4CEC22A09F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0EF91A-05FC-4B7D-80A4-63DB3D42C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="790" yWindow="1150" windowWidth="18620" windowHeight="9620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,24 @@
   <si>
     <t>3到5个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图数据、人员较少、中午1小时、饭补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信安世纪科技股份有限公司</t>
+  </si>
+  <si>
+    <t>晚上七点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不开发，主要是需求分析、原型设计等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉空心科技有限公司</t>
   </si>
 </sst>
 </file>
@@ -518,12 +536,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,24 +827,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08203125" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -834,7 +855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -845,7 +866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -856,7 +877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -867,7 +888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -878,7 +899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -889,12 +910,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -905,7 +926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -916,7 +937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -924,12 +945,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -943,7 +964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -957,7 +978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -971,7 +992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -985,7 +1006,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1013,7 +1034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1041,7 +1062,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1069,7 +1090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1083,7 +1104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1097,12 +1118,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1114,28 +1138,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1179,12 +1203,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1195,12 +1219,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1211,12 +1235,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1230,12 +1254,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1261,12 +1285,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1280,12 +1304,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1298,13 +1322,16 @@
       <c r="D30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1315,17 +1342,36 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0EF91A-05FC-4B7D-80A4-63DB3D42C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C6AC4C-4FEA-43E7-BA29-6955A8B80493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,210 +284,329 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上海飞未信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地伟业技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上扬软件（上海）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北腾毅实发人力资源服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佰思杰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉鸿海鑫科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海麦尔松伊信息咨询工作室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳德智合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京易择（北京）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉空心科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智朗拿云（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉杰圣云科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西山韵信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北小橙子科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市同步远方信息技术开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神州微品致远信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉英泰斯特电子技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信安世纪科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺通达极端有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海娇罗电子商务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州蓝图人力资源有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联龙博通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯阜德（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中望软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉华信云创技术服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海电气数智生态科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉汉鸣信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北金拓维信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳南区人瑞人力资源服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信联互动科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博彦科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳中科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌天问网络服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中船重工（武汉）凌久电子有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉达梦数据库股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外企德科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佰钧成技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天喻教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中交二航局智行行国际公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国汽智图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六下午三点综面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3到5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信安世纪科技股份有限公司</t>
+  </si>
+  <si>
+    <t>晚上七点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不开发，主要是需求分析、原型设计等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉空心科技有限公司</t>
+  </si>
+  <si>
+    <t>武汉盛博汇信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉心络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉海昌信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西国泰利民信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉烽火普天信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市甲乐科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉兴智联科技服务有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰图科技（深圳）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉斗鱼网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方微银科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银云创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉唯理科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风汽车公司技术中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海浦东发展银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中交二航局智行国际公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天喻教育科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电通途科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳中电技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北荣创科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天喻软件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市同为数码科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟科技集团股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大势指挥科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉时代地智科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英特利普科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图数据、人员较少、中午1小时、饭补，在北京签或跟外包签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>武汉虹服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海飞未信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天地伟业技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上扬软件（上海）有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北腾毅实发人力资源服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佰思杰科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉鸿海鑫科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海麦尔松伊信息咨询工作室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳德智合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京易择（北京）科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉空心科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智朗拿云（武汉）科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉杰圣云科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西山韵信息科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北小橙子科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉市同步远方信息技术开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神州微品致远信息科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉英泰斯特电子技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京信安世纪科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺通达极端有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海娇罗电子商务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州蓝图人力资源有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联龙博通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯阜德（武汉）科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中望软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉华信云创技术服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海电气数智生态科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉汉鸣信息科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北金拓维信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳南区人瑞人力资源服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京信联互动科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博彦科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳中科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌天问网络服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中船重工（武汉）凌久电子有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉达梦数据库股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外企德科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉佰钧成技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上8点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉天喻教育科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中交二航局智行行国际公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国汽智图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午1.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六下午三点综面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3到5个工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图数据、人员较少、中午1小时、饭补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京信安世纪科技股份有限公司</t>
-  </si>
-  <si>
-    <t>晚上七点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不开发，主要是需求分析、原型设计等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉空心科技有限公司</t>
+  </si>
+  <si>
+    <t>武大吉奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上八点半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -825,26 +944,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.08203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -855,7 +974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -866,7 +985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -877,7 +996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -888,7 +1007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -896,10 +1015,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -907,226 +1026,328 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C30" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D30" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C32" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C33" t="s">
         <v>91</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D34" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C35" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D35" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B36" t="s">
         <v>100</v>
       </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1138,28 +1359,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1203,12 +1424,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1219,12 +1440,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1235,12 +1456,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1254,12 +1475,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1285,12 +1506,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1304,74 +1525,87 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C6AC4C-4FEA-43E7-BA29-6955A8B80493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0785C6-42CE-4F6F-82FA-5534791BA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1543,7 +1543,7 @@
       <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1563,31 +1563,31 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -1595,12 +1595,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0785C6-42CE-4F6F-82FA-5534791BA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55145EFA-33A0-499C-B22A-A89469967B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="70" windowWidth="18620" windowHeight="9620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,23 +321,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>智朗拿云（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉杰圣云科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西山韵信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北小橙子科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市同步远方信息技术开发有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神州微品致远信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉英泰斯特电子技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信安世纪科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺通达极端有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海娇罗电子商务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州蓝图人力资源有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联龙博通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯阜德（武汉）科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中望软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉华信云创技术服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海电气数智生态科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉汉鸣信息科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北金拓维信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳南区人瑞人力资源服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信联互动科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博彦科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳中科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌天问网络服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中船重工（武汉）凌久电子有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉达梦数据库股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外企德科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佰钧成技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天喻教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中交二航局智行行国际公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国汽智图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六下午三点综面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3到5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京信安世纪科技股份有限公司</t>
+  </si>
+  <si>
+    <t>晚上七点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不开发，主要是需求分析、原型设计等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>武汉空心科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智朗拿云（武汉）科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉杰圣云科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西山韵信息科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北小橙子科技有限公司</t>
+  </si>
+  <si>
+    <t>武汉盛博汇信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉心络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉海昌信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西国泰利民信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉烽火普天信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市甲乐科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉兴智联科技服务有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,176 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉市同步远方信息技术开发有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神州微品致远信息科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉英泰斯特电子技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京信安世纪科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺通达极端有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海娇罗电子商务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州蓝图人力资源有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联龙博通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯阜德（武汉）科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中望软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉华信云创技术服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海电气数智生态科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉汉鸣信息科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北金拓维信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳南区人瑞人力资源服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京信联互动科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博彦科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳中科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌天问网络服务有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中船重工（武汉）凌久电子有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉达梦数据库股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外企德科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉佰钧成技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上8点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉天喻教育科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中交二航局智行行国际公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国汽智图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午1.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六下午三点综面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3到5个工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京信安世纪科技股份有限公司</t>
-  </si>
-  <si>
-    <t>晚上七点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不开发，主要是需求分析、原型设计等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉空心科技有限公司</t>
-  </si>
-  <si>
-    <t>武汉盛博汇信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉心络科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉海昌信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西国泰利民信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉烽火普天信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉市甲乐科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉兴智联科技服务有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丰图科技（深圳）有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,6 +603,22 @@
   </si>
   <si>
     <t>晚上八点半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉吉十软件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉物易云通网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国药新创科技发展有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市蓝泰源信息技术股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +652,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -664,6 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -946,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1035,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1026,32 +1046,46 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>113</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" t="s">
-        <v>118</v>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,48 +1123,48 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
         <v>129</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>120</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
         <v>123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,7 +1183,7 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,7 +1197,7 @@
         <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,13 +1205,13 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,7 +1225,7 @@
         <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1205,7 +1239,7 @@
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,38 +1250,38 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
       <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
       <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
         <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,41 +1289,41 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
         <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
       <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
         <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1297,57 +1331,54 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
         <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>135</v>
-      </c>
-      <c r="C39" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
         <v>137</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>138</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1389,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D049FF43-E699-4C36-B7C2-B13B849E2151}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1535,16 +1580,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1557,10 +1602,10 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1570,13 +1615,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1589,10 +1634,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
         <v>108</v>
-      </c>
-      <c r="B40" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1602,10 +1647,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55145EFA-33A0-499C-B22A-A89469967B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB6E89-CF58-4615-8186-28AFA11D4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="70" windowWidth="18620" windowHeight="9620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,6 +618,10 @@
   </si>
   <si>
     <t>深圳市蓝泰源信息技术股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未履约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,24 +969,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08203125" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -994,7 +997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -1088,12 +1091,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1167,12 +1170,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -1389,43 +1392,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D049FF43-E699-4C36-B7C2-B13B849E2151}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.58203125" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1469,12 +1458,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1485,12 +1474,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1501,12 +1490,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1520,12 +1509,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1551,12 +1540,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1570,12 +1559,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1592,12 +1581,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1608,12 +1597,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1624,28 +1613,31 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB6E89-CF58-4615-8186-28AFA11D4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25EBAE8-8AAB-4E93-B6D0-2023383B56E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="154">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,6 +622,30 @@
   </si>
   <si>
     <t>未履约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉米腾科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海得逸信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉华神智能科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国信 创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北蜻蜓创客阿朴科技咨询有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六险一金按基本工资交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1080,7 @@
       <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C9" t="s">
@@ -1090,6 +1114,9 @@
       <c r="C11" t="s">
         <v>146</v>
       </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1361,6 +1388,9 @@
       <c r="C38" t="s">
         <v>132</v>
       </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1372,6 +1402,9 @@
       <c r="C39" t="s">
         <v>135</v>
       </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1382,6 +1415,17 @@
       </c>
       <c r="C40" t="s">
         <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1440,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1644,6 +1688,12 @@
       <c r="B43" t="s">
         <v>142</v>
       </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25EBAE8-8AAB-4E93-B6D0-2023383B56E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2D534-F797-4869-95CA-ED79B9C23832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,10 @@
   </si>
   <si>
     <t>六险一金按基本工资交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr薪资沟通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,20 +1001,20 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.08203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -1118,12 +1122,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1197,12 +1201,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>152</v>
       </c>
@@ -1440,25 +1444,25 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1502,12 +1506,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1518,12 +1522,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1534,12 +1538,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1553,12 +1557,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1584,12 +1588,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1603,12 +1607,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1625,12 +1629,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1641,12 +1645,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1657,15 +1661,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -1676,12 +1680,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -1690,6 +1694,9 @@
       </c>
       <c r="C43" t="s">
         <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
       </c>
       <c r="H43" t="s">
         <v>153</v>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2D534-F797-4869-95CA-ED79B9C23832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CE146-658B-4696-BEF8-1EC7A1DB7758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hr薪资沟通</t>
+    <t>hr薪资沟通  晚上8点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CE146-658B-4696-BEF8-1EC7A1DB7758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771DD40C-A4EB-4EF5-AF2B-5490030E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉大势指挥科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉时代地智科技股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,6 +646,10 @@
   </si>
   <si>
     <t>hr薪资沟通  晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大势智慧科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1105,21 +1105,21 @@
         <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
         <v>144</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -1392,8 +1392,8 @@
       <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
-        <v>149</v>
+      <c r="D38" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,26 +1407,26 @@
         <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
         <v>136</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>137</v>
       </c>
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>130</v>
@@ -1443,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1687,19 +1687,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
         <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771DD40C-A4EB-4EF5-AF2B-5490030E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F97C0-C70C-4DDD-A4F6-EDF8F7D29377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +650,10 @@
   </si>
   <si>
     <t>武汉大势智慧科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14k、无食堂、中午一小时、9-18、补贴16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,24 +1001,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08203125" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1122,12 +1126,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1201,12 +1205,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
@@ -1443,26 +1447,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.58203125" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1506,12 +1510,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1522,12 +1526,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1538,12 +1542,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1557,12 +1561,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1588,12 +1592,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1607,12 +1611,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1629,12 +1633,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1645,12 +1649,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1661,15 +1665,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -1680,12 +1684,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -1697,6 +1701,9 @@
       </c>
       <c r="D43" t="s">
         <v>153</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
       </c>
       <c r="H43" t="s">
         <v>152</v>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F97C0-C70C-4DDD-A4F6-EDF8F7D29377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8500AA4F-6A43-4792-B486-93BC9CB34BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +654,22 @@
   </si>
   <si>
     <t>14k、无食堂、中午一小时、9-18、补贴16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.13晚上七点复试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京亚信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上八点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1018,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1445,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1654,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1649,31 +1665,34 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
       <c r="H36" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -1684,12 +1703,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -1707,6 +1726,22 @@
       </c>
       <c r="H43" t="s">
         <v>152</v>
+      </c>
+      <c r="K43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8500AA4F-6A43-4792-B486-93BC9CB34BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336810D-1191-46F2-82D7-19CB8167692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="162">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,14 @@
   </si>
   <si>
     <t>晚上八点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思特沃克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午一点半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1645,6 +1653,9 @@
       <c r="D30" t="s">
         <v>105</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F30" t="s">
         <v>109</v>
       </c>
@@ -1664,6 +1675,9 @@
       <c r="C33" t="s">
         <v>106</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1742,6 +1756,19 @@
       </c>
       <c r="B47" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336810D-1191-46F2-82D7-19CB8167692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B06E98C-9F99-41A8-BBD3-2F41194B4C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,18 @@
   </si>
   <si>
     <t>中午一点半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉国信创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上七点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,20 +1041,20 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.08203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1150,12 +1162,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1166,7 +1178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1229,12 +1241,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1304,7 +1316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1346,7 +1358,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1374,7 +1386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
@@ -1469,28 +1481,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1534,12 +1546,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1550,12 +1562,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1566,12 +1578,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1585,12 +1597,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1616,12 +1628,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1635,12 +1647,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1660,12 +1672,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1679,12 +1691,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1698,15 +1710,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -1717,12 +1729,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -1745,30 +1757,54 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44665</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>158</v>
       </c>
       <c r="B47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44666</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>161</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B06E98C-9F99-41A8-BBD3-2F41194B4C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF3E9D4-E853-4594-9C56-0C4ACF2475A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="166">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,10 @@
   </si>
   <si>
     <t>晚上七点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商证券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,7 +1488,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1803,6 +1807,9 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
       <c r="B56" t="s">
         <v>164</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF3E9D4-E853-4594-9C56-0C4ACF2475A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF23F5F-5DAA-4258-B331-F7B3F4FD34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="167">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,10 @@
   </si>
   <si>
     <t>招商证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两天内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,20 +1049,20 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08203125" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1166,12 +1170,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1245,12 +1249,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
@@ -1488,25 +1492,25 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.58203125" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1550,12 +1554,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1566,12 +1570,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1582,12 +1586,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44648</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1601,12 +1605,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1632,12 +1636,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44650</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1651,12 +1655,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1676,12 +1680,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1695,12 +1699,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44659</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1714,15 +1718,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -1733,12 +1737,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -1761,12 +1765,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44665</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -1777,12 +1781,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44666</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1793,25 +1797,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44671</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
       <c r="B55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF23F5F-5DAA-4258-B331-F7B3F4FD34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936ECD51-D3DF-42C4-A057-D0F18EAAC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="167">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1781,12 +1781,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44666</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1797,12 +1797,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44671</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -1812,8 +1812,11 @@
       <c r="C55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>

--- a/resume/日期安排-回复.xlsx
+++ b/resume/日期安排-回复.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936ECD51-D3DF-42C4-A057-D0F18EAAC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621EB5BD-720F-4D82-A4D5-23045DB0906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,14 @@
   </si>
   <si>
     <t>两天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四衡网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班多，两天内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1489,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1826,6 +1834,25 @@
       <c r="C56" t="s">
         <v>166</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
